--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1267161.055371811</v>
+        <v>1265630.531549304</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24682991.44860121</v>
+        <v>24682991.4486012</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5996719.914324037</v>
+        <v>5996719.914324038</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="C4" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.18661160258025</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>41.31500304752735</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="E6" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,20 +1062,20 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="V7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752735</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="W10" t="n">
         <v>41.31500304752735</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>368.8586709054694</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T11" t="n">
         <v>213.4381736591986</v>
@@ -1432,10 +1432,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>79.26294710534442</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T12" t="n">
         <v>126.69517457806</v>
@@ -1548,7 +1548,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I13" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S13" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T13" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U13" t="n">
         <v>275.6239191354308</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>83.58699780046744</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.4381736591986</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5491497884846</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>399.063958310478</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T15" t="n">
         <v>126.69517457806</v>
@@ -1785,7 +1785,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I16" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S16" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T16" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U16" t="n">
         <v>275.6239191354308</v>
@@ -1861,7 +1861,7 @@
         <v>396.3722297171108</v>
       </c>
       <c r="H17" t="n">
-        <v>275.8785654204481</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.76298808426463</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T17" t="n">
         <v>213.4381736591986</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T18" t="n">
         <v>126.69517457806</v>
@@ -2022,7 +2022,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I19" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S19" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T19" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U19" t="n">
         <v>275.6239191354308</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772997</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2098,7 +2098,7 @@
         <v>396.3722297171108</v>
       </c>
       <c r="H20" t="n">
-        <v>275.8785654204481</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.76298808426463</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T20" t="n">
         <v>213.4381736591986</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T21" t="n">
         <v>126.69517457806</v>
@@ -2259,7 +2259,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I22" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S22" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T22" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U22" t="n">
         <v>275.6239191354308</v>
@@ -2335,7 +2335,7 @@
         <v>396.3722297171108</v>
       </c>
       <c r="H23" t="n">
-        <v>275.8785654204481</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T23" t="n">
         <v>213.4381736591986</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884845</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T24" t="n">
         <v>126.69517457806</v>
@@ -2496,7 +2496,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I25" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S25" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T25" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U25" t="n">
         <v>275.6239191354308</v>
@@ -2572,7 +2572,7 @@
         <v>396.3722297171108</v>
       </c>
       <c r="H26" t="n">
-        <v>275.8785654204481</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4381736591997</v>
+        <v>213.4381736591986</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884854</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T27" t="n">
         <v>126.69517457806</v>
@@ -2733,7 +2733,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I28" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S28" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T28" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U28" t="n">
         <v>275.6239191354308</v>
@@ -2809,7 +2809,7 @@
         <v>396.3722297171108</v>
       </c>
       <c r="H29" t="n">
-        <v>275.8785654204481</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T29" t="n">
         <v>213.4381736591986</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884845</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T30" t="n">
         <v>126.69517457806</v>
@@ -2970,7 +2970,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I31" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S31" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T31" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U31" t="n">
         <v>275.6239191354308</v>
@@ -3046,7 +3046,7 @@
         <v>396.3722297171108</v>
       </c>
       <c r="H32" t="n">
-        <v>275.8785654204481</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T32" t="n">
         <v>213.4381736591986</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T33" t="n">
         <v>126.69517457806</v>
@@ -3207,7 +3207,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I34" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S34" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T34" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U34" t="n">
         <v>275.6239191354308</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800595</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3283,7 +3283,7 @@
         <v>396.3722297171108</v>
       </c>
       <c r="H35" t="n">
-        <v>275.8785654204481</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426463</v>
       </c>
       <c r="T35" t="n">
         <v>213.4381736591986</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T36" t="n">
         <v>126.69517457806</v>
@@ -3444,7 +3444,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I37" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S37" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T37" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U37" t="n">
         <v>275.6239191354308</v>
@@ -3514,13 +3514,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948851</v>
       </c>
       <c r="G38" t="n">
         <v>396.3722297171108</v>
       </c>
       <c r="H38" t="n">
-        <v>275.878565420449</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T38" t="n">
         <v>213.4381736591986</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T39" t="n">
         <v>126.69517457806</v>
@@ -3681,7 +3681,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I40" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S40" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T40" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U40" t="n">
         <v>275.6239191354308</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.8458135622849</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>236.3043896707623</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5491497884846</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T42" t="n">
         <v>126.69517457806</v>
@@ -3918,7 +3918,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I43" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S43" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T43" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U43" t="n">
         <v>275.6239191354308</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>393.2157162120739</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>183.4697018061225</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>52.76710075779914</v>
+        <v>52.76710075779915</v>
       </c>
       <c r="T45" t="n">
         <v>126.69517457806</v>
@@ -4155,7 +4155,7 @@
         <v>134.4686411153496</v>
       </c>
       <c r="I46" t="n">
-        <v>74.12696539717955</v>
+        <v>74.12696539717956</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8000708551639555</v>
+        <v>0.8000708551639732</v>
       </c>
       <c r="S46" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T46" t="n">
-        <v>241.4817763110568</v>
+        <v>241.4817763110569</v>
       </c>
       <c r="U46" t="n">
         <v>275.6239191354308</v>
@@ -4339,19 +4339,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="M2" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N2" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O2" t="n">
-        <v>42.55445313895319</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P2" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4409,52 +4409,52 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>29.36887340425979</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
-        <v>70.27072642131186</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N3" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="O3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="V3" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="W3" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="X3" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="Y3" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="V3" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="W3" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G4" t="n">
         <v>45.03752655443588</v>
@@ -4491,19 +4491,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="O4" t="n">
         <v>83.45630615600527</v>
-      </c>
-      <c r="L4" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="M4" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="N4" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O4" t="n">
-        <v>124.3581591730573</v>
       </c>
       <c r="P4" t="n">
         <v>124.3581591730573</v>
@@ -4512,28 +4512,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S4" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T4" t="n">
-        <v>143.8421908954813</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="C6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="E6" t="n">
         <v>86.76985286506957</v>
       </c>
-      <c r="C6" t="n">
-        <v>86.76985286506957</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
         <v>3.305200243802188</v>
@@ -4646,28 +4646,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="O6" t="n">
         <v>42.55445313895319</v>
       </c>
-      <c r="K6" t="n">
-        <v>42.55445313895319</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>83.45630615600527</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="N6" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O6" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P6" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4688,10 +4688,10 @@
         <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4710,28 +4710,28 @@
         <v>45.03752655443588</v>
       </c>
       <c r="E7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K7" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>85.10890627790634</v>
-      </c>
-      <c r="L7" t="n">
-        <v>124.3581591730573</v>
       </c>
       <c r="M7" t="n">
         <v>124.3581591730573</v>
@@ -4743,31 +4743,31 @@
         <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V7" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W7" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X7" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y7" t="n">
         <v>45.03752655443588</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064263</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
         <v>3.305200243802188</v>
@@ -4813,16 +4813,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="M8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N8" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O8" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="Q8" t="n">
         <v>124.3581591730573</v>
@@ -4843,7 +4843,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X8" t="n">
         <v>149.3429022612615</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="C9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="D9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4880,40 +4880,40 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L9" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M9" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N9" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O9" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P9" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T9" t="n">
         <v>123.5276858794757</v>
-      </c>
-      <c r="T9" t="n">
-        <v>81.79535956884203</v>
       </c>
       <c r="U9" t="n">
         <v>81.79535956884203</v>
@@ -4922,13 +4922,13 @@
         <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>81.79535956884203</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>81.79535956884203</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4962,13 +4962,13 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K10" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L10" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M10" t="n">
         <v>124.3581591730573</v>
@@ -4977,37 +4977,37 @@
         <v>124.3581591730573</v>
       </c>
       <c r="O10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="V10" t="n">
         <v>128.5021791757032</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>86.76985286506957</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>45.03752655443588</v>
       </c>
-      <c r="X10" t="n">
-        <v>3.305200243802188</v>
-      </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>871.1094940301194</v>
+        <v>2041.343399589992</v>
       </c>
       <c r="C11" t="n">
-        <v>432.9670212135428</v>
+        <v>1603.200926773415</v>
       </c>
       <c r="D11" t="n">
-        <v>432.9670212135428</v>
+        <v>1167.29114194786</v>
       </c>
       <c r="E11" t="n">
-        <v>432.9670212135428</v>
+        <v>1167.29114194786</v>
       </c>
       <c r="F11" t="n">
-        <v>432.9670212135428</v>
+        <v>739.4237123570676</v>
       </c>
       <c r="G11" t="n">
-        <v>60.38250514741201</v>
+        <v>339.0477227438244</v>
       </c>
       <c r="H11" t="n">
         <v>60.38250514741201</v>
       </c>
       <c r="I11" t="n">
-        <v>98.58461283384875</v>
+        <v>98.58461283384872</v>
       </c>
       <c r="J11" t="n">
         <v>618.8409645677729</v>
       </c>
       <c r="K11" t="n">
-        <v>1285.013393563685</v>
+        <v>746.2364249166444</v>
       </c>
       <c r="L11" t="n">
-        <v>1443.058727203649</v>
+        <v>904.2817585566082</v>
       </c>
       <c r="M11" t="n">
-        <v>1618.914612953745</v>
+        <v>1080.137644306704</v>
       </c>
       <c r="N11" t="n">
-        <v>2366.148114152969</v>
+        <v>1258.839062139905</v>
       </c>
       <c r="O11" t="n">
-        <v>2534.890795637249</v>
+        <v>1427.581743624185</v>
       </c>
       <c r="P11" t="n">
-        <v>2678.908770284169</v>
+        <v>2132.409984325574</v>
       </c>
       <c r="Q11" t="n">
         <v>2787.060271468286</v>
@@ -5080,13 +5080,13 @@
         <v>2121.406982524683</v>
       </c>
       <c r="W11" t="n">
-        <v>1716.551527935717</v>
+        <v>2041.343399589992</v>
       </c>
       <c r="X11" t="n">
-        <v>1297.409064515027</v>
+        <v>2041.343399589992</v>
       </c>
       <c r="Y11" t="n">
-        <v>1297.409064515027</v>
+        <v>2041.343399589992</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>181.6762185087391</v>
       </c>
       <c r="G12" t="n">
-        <v>96.83786231847485</v>
+        <v>96.83786231847486</v>
       </c>
       <c r="H12" t="n">
         <v>60.38250514741201</v>
@@ -5126,19 +5126,19 @@
         <v>566.6088522911786</v>
       </c>
       <c r="L12" t="n">
-        <v>682.9572285914952</v>
+        <v>682.9572285914951</v>
       </c>
       <c r="M12" t="n">
-        <v>1117.371984039226</v>
+        <v>818.7302959355875</v>
       </c>
       <c r="N12" t="n">
-        <v>1256.738560470546</v>
+        <v>958.0968723669071</v>
       </c>
       <c r="O12" t="n">
-        <v>1384.231750434454</v>
+        <v>1085.590062330815</v>
       </c>
       <c r="P12" t="n">
-        <v>1486.556275378665</v>
+        <v>1187.914587275027</v>
       </c>
       <c r="Q12" t="n">
         <v>1554.957510483088</v>
@@ -5184,16 +5184,16 @@
         <v>782.6831077130855</v>
       </c>
       <c r="E13" t="n">
-        <v>612.9251039638225</v>
+        <v>612.9251039638229</v>
       </c>
       <c r="F13" t="n">
-        <v>436.2180499255786</v>
+        <v>436.2180499255791</v>
       </c>
       <c r="G13" t="n">
-        <v>271.0851379883501</v>
+        <v>271.0851379883502</v>
       </c>
       <c r="H13" t="n">
-        <v>135.2582277708252</v>
+        <v>135.2582277708257</v>
       </c>
       <c r="I13" t="n">
         <v>60.38250514741201</v>
@@ -5205,7 +5205,7 @@
         <v>505.6757342317863</v>
       </c>
       <c r="L13" t="n">
-        <v>990.6755917358066</v>
+        <v>990.6755917358065</v>
       </c>
       <c r="M13" t="n">
         <v>1520.58012368478</v>
@@ -5232,7 +5232,7 @@
         <v>2623.14276776978</v>
       </c>
       <c r="U13" t="n">
-        <v>2344.734768643082</v>
+        <v>2344.734768643083</v>
       </c>
       <c r="V13" t="n">
         <v>2057.779260513513</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1362.302192380336</v>
+        <v>2121.406982524683</v>
       </c>
       <c r="C14" t="n">
-        <v>924.1597195637598</v>
+        <v>2036.97567161512</v>
       </c>
       <c r="D14" t="n">
-        <v>488.2499347382043</v>
+        <v>1601.065886789565</v>
       </c>
       <c r="E14" t="n">
-        <v>488.2499347382043</v>
+        <v>1167.29114194786</v>
       </c>
       <c r="F14" t="n">
-        <v>60.38250514741203</v>
+        <v>739.4237123570676</v>
       </c>
       <c r="G14" t="n">
-        <v>60.38250514741203</v>
+        <v>339.0477227438244</v>
       </c>
       <c r="H14" t="n">
-        <v>60.38250514741203</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="I14" t="n">
-        <v>98.58461283384878</v>
+        <v>98.58461283384872</v>
       </c>
       <c r="J14" t="n">
         <v>618.8409645677729</v>
       </c>
       <c r="K14" t="n">
-        <v>746.2364249166445</v>
+        <v>746.2364249166444</v>
       </c>
       <c r="L14" t="n">
-        <v>904.2817585566087</v>
+        <v>904.2817585566082</v>
       </c>
       <c r="M14" t="n">
-        <v>1080.137644306705</v>
+        <v>1080.137644306704</v>
       </c>
       <c r="N14" t="n">
-        <v>1258.839062139906</v>
+        <v>1258.839062139905</v>
       </c>
       <c r="O14" t="n">
-        <v>1427.581743624186</v>
+        <v>1427.581743624185</v>
       </c>
       <c r="P14" t="n">
-        <v>2132.409984325575</v>
+        <v>2132.409984325574</v>
       </c>
       <c r="Q14" t="n">
-        <v>2787.060271468287</v>
+        <v>2787.060271468286</v>
       </c>
       <c r="R14" t="n">
-        <v>3019.125257370602</v>
+        <v>3019.125257370601</v>
       </c>
       <c r="S14" t="n">
-        <v>3019.125257370602</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="T14" t="n">
-        <v>3019.125257370602</v>
+        <v>2743.16448793276</v>
       </c>
       <c r="U14" t="n">
-        <v>3019.125257370602</v>
+        <v>2484.023932590857</v>
       </c>
       <c r="V14" t="n">
-        <v>3019.125257370602</v>
+        <v>2121.406982524683</v>
       </c>
       <c r="W14" t="n">
-        <v>2616.03034998628</v>
+        <v>2121.406982524683</v>
       </c>
       <c r="X14" t="n">
-        <v>2196.887886565591</v>
+        <v>2121.406982524683</v>
       </c>
       <c r="Y14" t="n">
-        <v>1788.601762865244</v>
+        <v>2121.406982524683</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>96.83786231847486</v>
       </c>
       <c r="H15" t="n">
-        <v>60.38250514741203</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="I15" t="n">
-        <v>104.8955218884673</v>
+        <v>104.8955218884672</v>
       </c>
       <c r="J15" t="n">
-        <v>155.5219308145378</v>
+        <v>480.0802557807501</v>
       </c>
       <c r="K15" t="n">
-        <v>242.0505273249663</v>
+        <v>566.6088522911786</v>
       </c>
       <c r="L15" t="n">
-        <v>358.398903625283</v>
+        <v>682.9572285914951</v>
       </c>
       <c r="M15" t="n">
-        <v>1105.632404824507</v>
+        <v>818.7302959355875</v>
       </c>
       <c r="N15" t="n">
-        <v>1256.738560470546</v>
+        <v>958.0968723669071</v>
       </c>
       <c r="O15" t="n">
-        <v>1384.231750434454</v>
+        <v>1085.590062330815</v>
       </c>
       <c r="P15" t="n">
-        <v>1486.556275378665</v>
+        <v>1187.914587275027</v>
       </c>
       <c r="Q15" t="n">
         <v>1554.957510483088</v>
@@ -5415,13 +5415,13 @@
         <v>1121.122812028338</v>
       </c>
       <c r="C16" t="n">
-        <v>948.5611005115629</v>
+        <v>948.5611005115628</v>
       </c>
       <c r="D16" t="n">
         <v>782.6831077130855</v>
       </c>
       <c r="E16" t="n">
-        <v>612.9251039638229</v>
+        <v>612.9251039638228</v>
       </c>
       <c r="F16" t="n">
         <v>436.2180499255791</v>
@@ -5433,43 +5433,43 @@
         <v>135.2582277708257</v>
       </c>
       <c r="I16" t="n">
-        <v>60.38250514741203</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="J16" t="n">
-        <v>92.1438871517738</v>
+        <v>178.7235723164636</v>
       </c>
       <c r="K16" t="n">
-        <v>402.3970779697345</v>
+        <v>505.6757342317863</v>
       </c>
       <c r="L16" t="n">
-        <v>887.3969354737548</v>
+        <v>990.6755917358065</v>
       </c>
       <c r="M16" t="n">
-        <v>1417.301467422729</v>
+        <v>1417.301467422727</v>
       </c>
       <c r="N16" t="n">
-        <v>1928.306489338175</v>
+        <v>1928.306489338173</v>
       </c>
       <c r="O16" t="n">
-        <v>2411.473998484725</v>
+        <v>2411.473998484723</v>
       </c>
       <c r="P16" t="n">
-        <v>2813.314623480658</v>
+        <v>2813.314623480656</v>
       </c>
       <c r="Q16" t="n">
-        <v>3019.125257370602</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="R16" t="n">
-        <v>3018.317104991648</v>
+        <v>3018.317104991646</v>
       </c>
       <c r="S16" t="n">
-        <v>2867.063753942566</v>
+        <v>2867.063753942564</v>
       </c>
       <c r="T16" t="n">
         <v>2623.14276776978</v>
       </c>
       <c r="U16" t="n">
-        <v>2344.734768643083</v>
+        <v>2344.734768643082</v>
       </c>
       <c r="V16" t="n">
         <v>2057.779260513513</v>
@@ -5521,19 +5521,19 @@
         <v>1621.653957162617</v>
       </c>
       <c r="L17" t="n">
-        <v>2008.033976461607</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.889862211704</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N17" t="n">
-        <v>3439.330461972383</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O17" t="n">
-        <v>4588.252810026969</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P17" t="n">
-        <v>4732.270784673889</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q17" t="n">
         <v>4840.422285858007</v>
@@ -5542,10 +5542,10 @@
         <v>5072.48727176032</v>
       </c>
       <c r="S17" t="n">
-        <v>5012.12061712975</v>
+        <v>5012.120617129752</v>
       </c>
       <c r="T17" t="n">
-        <v>4796.526502322478</v>
+        <v>4796.52650232248</v>
       </c>
       <c r="U17" t="n">
         <v>4537.385946980575</v>
@@ -5597,22 +5597,22 @@
         <v>521.1474960685445</v>
       </c>
       <c r="K18" t="n">
-        <v>906.3177806826113</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L18" t="n">
-        <v>1022.666156982928</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.43922432702</v>
+        <v>859.7975362233819</v>
       </c>
       <c r="N18" t="n">
-        <v>1297.80580075834</v>
+        <v>999.1641126547015</v>
       </c>
       <c r="O18" t="n">
-        <v>1425.298990722248</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P18" t="n">
-        <v>1527.62351566646</v>
+        <v>1228.981827562821</v>
       </c>
       <c r="Q18" t="n">
         <v>1596.024750770882</v>
@@ -5673,25 +5673,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J19" t="n">
-        <v>219.790812604258</v>
+        <v>133.2111274395681</v>
       </c>
       <c r="K19" t="n">
-        <v>546.7429745195807</v>
+        <v>460.1632893548909</v>
       </c>
       <c r="L19" t="n">
-        <v>1031.742832023601</v>
+        <v>945.1631468589111</v>
       </c>
       <c r="M19" t="n">
-        <v>1561.647363972575</v>
+        <v>1475.067678807885</v>
       </c>
       <c r="N19" t="n">
-        <v>2072.652385888021</v>
+        <v>1986.072700723331</v>
       </c>
       <c r="O19" t="n">
-        <v>2555.819895034571</v>
+        <v>2469.240209869881</v>
       </c>
       <c r="P19" t="n">
-        <v>2957.660520030505</v>
+        <v>2871.080834865814</v>
       </c>
       <c r="Q19" t="n">
         <v>3060.192497658394</v>
@@ -5740,7 +5740,7 @@
         <v>1208.358382235654</v>
       </c>
       <c r="F20" t="n">
-        <v>780.4909526448619</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G20" t="n">
         <v>380.1149630316187</v>
@@ -5755,28 +5755,28 @@
         <v>659.9082048555672</v>
       </c>
       <c r="K20" t="n">
-        <v>787.3036652044389</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L20" t="n">
-        <v>2020.408965097262</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M20" t="n">
-        <v>2196.264850847359</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N20" t="n">
-        <v>3451.705450608038</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O20" t="n">
-        <v>3620.448132092318</v>
+        <v>3213.444149234977</v>
       </c>
       <c r="P20" t="n">
-        <v>4592.775981572634</v>
+        <v>4185.771998715294</v>
       </c>
       <c r="Q20" t="n">
-        <v>5009.576350611063</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R20" t="n">
-        <v>5072.48727176032</v>
+        <v>5072.487271760319</v>
       </c>
       <c r="S20" t="n">
         <v>5012.12061712975</v>
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.7944618702227</v>
+        <v>601.7944618702226</v>
       </c>
       <c r="C21" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D21" t="n">
-        <v>400.2477118534182</v>
+        <v>400.2477118534181</v>
       </c>
       <c r="E21" t="n">
-        <v>306.1272971803719</v>
+        <v>306.1272971803718</v>
       </c>
       <c r="F21" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G21" t="n">
-        <v>137.9051026062693</v>
+        <v>137.9051026062692</v>
       </c>
       <c r="H21" t="n">
         <v>101.4497454352064</v>
@@ -5831,28 +5831,28 @@
         <v>145.9627621762616</v>
       </c>
       <c r="J21" t="n">
-        <v>196.5891711023322</v>
+        <v>521.1474960685445</v>
       </c>
       <c r="K21" t="n">
-        <v>963.8512876831379</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L21" t="n">
-        <v>1080.199663983455</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M21" t="n">
-        <v>1215.972731327547</v>
+        <v>859.7975362233819</v>
       </c>
       <c r="N21" t="n">
-        <v>1355.339307758867</v>
+        <v>999.1641126547015</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.832497722775</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P21" t="n">
-        <v>1585.157022666986</v>
+        <v>1228.981827562821</v>
       </c>
       <c r="Q21" t="n">
-        <v>1653.558257771409</v>
+        <v>1596.024750770882</v>
       </c>
       <c r="R21" t="n">
         <v>1746.467453416424</v>
@@ -5861,7 +5861,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.192427824648</v>
+        <v>1565.192427824647</v>
       </c>
       <c r="U21" t="n">
         <v>1388.891850136692</v>
@@ -5873,10 +5873,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X21" t="n">
-        <v>849.5841421707651</v>
+        <v>849.5841421707649</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.0983629499858</v>
+        <v>723.0983629499857</v>
       </c>
     </row>
     <row r="22">
@@ -5910,7 +5910,7 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J22" t="n">
-        <v>133.2111274395682</v>
+        <v>133.2111274395681</v>
       </c>
       <c r="K22" t="n">
         <v>460.1632893548909</v>
@@ -5977,10 +5977,10 @@
         <v>1208.358382235655</v>
       </c>
       <c r="F23" t="n">
-        <v>780.4909526448623</v>
+        <v>780.4909526448628</v>
       </c>
       <c r="G23" t="n">
-        <v>380.1149630316186</v>
+        <v>380.1149630316187</v>
       </c>
       <c r="H23" t="n">
         <v>101.4497454352064</v>
@@ -5992,28 +5992,28 @@
         <v>659.9082048555672</v>
       </c>
       <c r="K23" t="n">
-        <v>787.3036652044389</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L23" t="n">
-        <v>945.3489988444029</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M23" t="n">
-        <v>2200.789598605082</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N23" t="n">
-        <v>2379.491016438283</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O23" t="n">
-        <v>3213.444149234978</v>
+        <v>3213.444149234977</v>
       </c>
       <c r="P23" t="n">
-        <v>4185.771998715295</v>
+        <v>4185.771998715294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4840.422285858007</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R23" t="n">
-        <v>5072.48727176032</v>
+        <v>5072.487271760319</v>
       </c>
       <c r="S23" t="n">
         <v>5012.120617129751</v>
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>601.7944618702227</v>
+        <v>601.7944618702226</v>
       </c>
       <c r="C24" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D24" t="n">
-        <v>400.2477118534182</v>
+        <v>400.2477118534181</v>
       </c>
       <c r="E24" t="n">
-        <v>306.1272971803719</v>
+        <v>306.1272971803718</v>
       </c>
       <c r="F24" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G24" t="n">
-        <v>137.9051026062693</v>
+        <v>137.9051026062692</v>
       </c>
       <c r="H24" t="n">
         <v>101.4497454352064</v>
       </c>
       <c r="I24" t="n">
-        <v>145.9627621762616</v>
+        <v>119.899089015804</v>
       </c>
       <c r="J24" t="n">
-        <v>196.5891711023322</v>
+        <v>396.2230236344474</v>
       </c>
       <c r="K24" t="n">
-        <v>283.1177676127606</v>
+        <v>482.7516201448758</v>
       </c>
       <c r="L24" t="n">
-        <v>399.4661439130774</v>
+        <v>599.0999964451925</v>
       </c>
       <c r="M24" t="n">
-        <v>535.2392112571697</v>
+        <v>734.8730637892847</v>
       </c>
       <c r="N24" t="n">
-        <v>674.6057876884894</v>
+        <v>874.2396402206043</v>
       </c>
       <c r="O24" t="n">
-        <v>802.0989776523977</v>
+        <v>1001.732830184513</v>
       </c>
       <c r="P24" t="n">
-        <v>986.8845770343844</v>
+        <v>1104.057355128724</v>
       </c>
       <c r="Q24" t="n">
-        <v>1596.024750770882</v>
+        <v>1713.197528865222</v>
       </c>
       <c r="R24" t="n">
         <v>1746.467453416424</v>
@@ -6098,7 +6098,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T24" t="n">
-        <v>1565.192427824648</v>
+        <v>1565.192427824647</v>
       </c>
       <c r="U24" t="n">
         <v>1388.891850136692</v>
@@ -6110,10 +6110,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X24" t="n">
-        <v>849.5841421707651</v>
+        <v>849.5841421707649</v>
       </c>
       <c r="Y24" t="n">
-        <v>723.0983629499858</v>
+        <v>723.0983629499857</v>
       </c>
     </row>
     <row r="25">
@@ -6147,25 +6147,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J25" t="n">
-        <v>133.2111274395682</v>
+        <v>219.790812604258</v>
       </c>
       <c r="K25" t="n">
-        <v>460.1632893548909</v>
+        <v>546.7429745195806</v>
       </c>
       <c r="L25" t="n">
-        <v>945.1631468589111</v>
+        <v>1031.742832023601</v>
       </c>
       <c r="M25" t="n">
-        <v>1475.067678807885</v>
+        <v>1561.647363972575</v>
       </c>
       <c r="N25" t="n">
-        <v>1986.072700723331</v>
+        <v>2072.652385888021</v>
       </c>
       <c r="O25" t="n">
-        <v>2469.240209869881</v>
+        <v>2555.819895034571</v>
       </c>
       <c r="P25" t="n">
-        <v>2871.080834865814</v>
+        <v>2957.660520030505</v>
       </c>
       <c r="Q25" t="n">
         <v>3060.192497658394</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2516.185384719491</v>
+        <v>2516.185384719492</v>
       </c>
       <c r="C26" t="n">
         <v>2078.042911902915</v>
       </c>
       <c r="D26" t="n">
-        <v>1642.133127077359</v>
+        <v>1642.13312707736</v>
       </c>
       <c r="E26" t="n">
-        <v>1208.358382235654</v>
+        <v>1208.358382235655</v>
       </c>
       <c r="F26" t="n">
-        <v>780.4909526448619</v>
+        <v>780.4909526448628</v>
       </c>
       <c r="G26" t="n">
         <v>380.1149630316187</v>
@@ -6226,52 +6226,52 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J26" t="n">
-        <v>224.6535174026494</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K26" t="n">
-        <v>1186.399269709699</v>
+        <v>787.3036652044387</v>
       </c>
       <c r="L26" t="n">
-        <v>2419.504569602522</v>
+        <v>945.3489988444026</v>
       </c>
       <c r="M26" t="n">
-        <v>2595.360455352619</v>
+        <v>2200.789598605082</v>
       </c>
       <c r="N26" t="n">
-        <v>2774.06187318582</v>
+        <v>3456.230198365761</v>
       </c>
       <c r="O26" t="n">
-        <v>3922.984221240406</v>
+        <v>3624.97287985004</v>
       </c>
       <c r="P26" t="n">
-        <v>4895.312070720723</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q26" t="n">
-        <v>5009.576350611062</v>
+        <v>4840.422285858007</v>
       </c>
       <c r="R26" t="n">
-        <v>5072.487271760319</v>
+        <v>5072.48727176032</v>
       </c>
       <c r="S26" t="n">
-        <v>5012.120617129751</v>
+        <v>5012.120617129752</v>
       </c>
       <c r="T26" t="n">
-        <v>4796.526502322478</v>
+        <v>4796.52650232248</v>
       </c>
       <c r="U26" t="n">
-        <v>4537.385946980575</v>
+        <v>4537.385946980576</v>
       </c>
       <c r="V26" t="n">
-        <v>4174.768996914401</v>
+        <v>4174.768996914402</v>
       </c>
       <c r="W26" t="n">
-        <v>3769.913542325435</v>
+        <v>3769.913542325436</v>
       </c>
       <c r="X26" t="n">
         <v>3350.771078904746</v>
       </c>
       <c r="Y26" t="n">
-        <v>2942.484955204399</v>
+        <v>2942.4849552044</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>601.7944618702226</v>
+        <v>601.7944618702227</v>
       </c>
       <c r="C27" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D27" t="n">
-        <v>400.2477118534181</v>
+        <v>400.2477118534182</v>
       </c>
       <c r="E27" t="n">
-        <v>306.1272971803718</v>
+        <v>306.1272971803719</v>
       </c>
       <c r="F27" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G27" t="n">
-        <v>137.9051026062692</v>
+        <v>137.9051026062693</v>
       </c>
       <c r="H27" t="n">
         <v>101.4497454352064</v>
@@ -6305,25 +6305,25 @@
         <v>145.9627621762616</v>
       </c>
       <c r="J27" t="n">
-        <v>196.5891711023322</v>
+        <v>521.1474960685445</v>
       </c>
       <c r="K27" t="n">
-        <v>283.1177676127606</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L27" t="n">
-        <v>399.4661439130774</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M27" t="n">
-        <v>535.2392112571697</v>
+        <v>859.7975362233819</v>
       </c>
       <c r="N27" t="n">
-        <v>674.6057876884894</v>
+        <v>999.1641126547015</v>
       </c>
       <c r="O27" t="n">
-        <v>802.0989776523977</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P27" t="n">
-        <v>986.8845770343842</v>
+        <v>1228.981827562821</v>
       </c>
       <c r="Q27" t="n">
         <v>1596.024750770882</v>
@@ -6335,7 +6335,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T27" t="n">
-        <v>1565.192427824647</v>
+        <v>1565.192427824648</v>
       </c>
       <c r="U27" t="n">
         <v>1388.891850136692</v>
@@ -6347,10 +6347,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X27" t="n">
-        <v>849.5841421707649</v>
+        <v>849.5841421707651</v>
       </c>
       <c r="Y27" t="n">
-        <v>723.0983629499857</v>
+        <v>723.0983629499858</v>
       </c>
     </row>
     <row r="28">
@@ -6369,13 +6369,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E28" t="n">
-        <v>653.9923442516172</v>
+        <v>653.9923442516173</v>
       </c>
       <c r="F28" t="n">
-        <v>477.2852902133734</v>
+        <v>477.2852902133735</v>
       </c>
       <c r="G28" t="n">
-        <v>312.1523782761449</v>
+        <v>312.152378276145</v>
       </c>
       <c r="H28" t="n">
         <v>176.3254680586201</v>
@@ -6384,25 +6384,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J28" t="n">
-        <v>219.790812604258</v>
+        <v>133.2111274395681</v>
       </c>
       <c r="K28" t="n">
-        <v>546.7429745195807</v>
+        <v>460.1632893548909</v>
       </c>
       <c r="L28" t="n">
-        <v>1031.742832023601</v>
+        <v>945.1631468589111</v>
       </c>
       <c r="M28" t="n">
-        <v>1561.647363972575</v>
+        <v>1475.067678807885</v>
       </c>
       <c r="N28" t="n">
-        <v>2072.652385888021</v>
+        <v>1986.072700723331</v>
       </c>
       <c r="O28" t="n">
-        <v>2555.819895034571</v>
+        <v>2469.240209869881</v>
       </c>
       <c r="P28" t="n">
-        <v>2957.660520030505</v>
+        <v>2871.080834865814</v>
       </c>
       <c r="Q28" t="n">
         <v>3060.192497658394</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2516.185384719492</v>
+        <v>2516.185384719491</v>
       </c>
       <c r="C29" t="n">
         <v>2078.042911902915</v>
       </c>
       <c r="D29" t="n">
-        <v>1642.13312707736</v>
+        <v>1642.133127077359</v>
       </c>
       <c r="E29" t="n">
-        <v>1208.358382235655</v>
+        <v>1208.358382235654</v>
       </c>
       <c r="F29" t="n">
-        <v>780.4909526448623</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G29" t="n">
         <v>380.1149630316187</v>
@@ -6463,28 +6463,28 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J29" t="n">
-        <v>224.6535174026494</v>
+        <v>224.6535174026493</v>
       </c>
       <c r="K29" t="n">
-        <v>352.0489777515211</v>
+        <v>352.0489777515209</v>
       </c>
       <c r="L29" t="n">
-        <v>1097.60332720408</v>
+        <v>1585.154277644344</v>
       </c>
       <c r="M29" t="n">
-        <v>2353.043926964759</v>
+        <v>1761.01016339444</v>
       </c>
       <c r="N29" t="n">
-        <v>3608.484526725438</v>
+        <v>2064.521801180391</v>
       </c>
       <c r="O29" t="n">
-        <v>4757.406874780025</v>
+        <v>3213.444149234977</v>
       </c>
       <c r="P29" t="n">
-        <v>4901.424849426945</v>
+        <v>4185.771998715294</v>
       </c>
       <c r="Q29" t="n">
-        <v>5009.576350611062</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R29" t="n">
         <v>5072.487271760319</v>
@@ -6493,22 +6493,22 @@
         <v>5012.12061712975</v>
       </c>
       <c r="T29" t="n">
-        <v>4796.526502322479</v>
+        <v>4796.526502322478</v>
       </c>
       <c r="U29" t="n">
-        <v>4537.385946980576</v>
+        <v>4537.385946980575</v>
       </c>
       <c r="V29" t="n">
-        <v>4174.768996914402</v>
+        <v>4174.768996914401</v>
       </c>
       <c r="W29" t="n">
-        <v>3769.913542325436</v>
+        <v>3769.913542325435</v>
       </c>
       <c r="X29" t="n">
         <v>3350.771078904746</v>
       </c>
       <c r="Y29" t="n">
-        <v>2942.4849552044</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3927.814280214117</v>
+        <v>601.7944618702226</v>
       </c>
       <c r="C30" t="n">
-        <v>3821.35781905076</v>
+        <v>495.3380007068649</v>
       </c>
       <c r="D30" t="n">
-        <v>3726.267530197313</v>
+        <v>400.2477118534181</v>
       </c>
       <c r="E30" t="n">
-        <v>3632.147115524267</v>
+        <v>306.1272971803718</v>
       </c>
       <c r="F30" t="n">
-        <v>3548.763277140428</v>
+        <v>222.7434587965335</v>
       </c>
       <c r="G30" t="n">
-        <v>3463.924920950164</v>
+        <v>137.9051026062692</v>
       </c>
       <c r="H30" t="n">
-        <v>3427.469563779101</v>
+        <v>101.4497454352064</v>
       </c>
       <c r="I30" t="n">
-        <v>3471.982580520156</v>
+        <v>145.9627621762616</v>
       </c>
       <c r="J30" t="n">
-        <v>3522.608989446226</v>
+        <v>521.1474960685445</v>
       </c>
       <c r="K30" t="n">
-        <v>3609.137585956655</v>
+        <v>906.3177806826116</v>
       </c>
       <c r="L30" t="n">
-        <v>3725.485962256972</v>
+        <v>1022.666156982928</v>
       </c>
       <c r="M30" t="n">
-        <v>3861.259029601064</v>
+        <v>1158.439224327021</v>
       </c>
       <c r="N30" t="n">
-        <v>4000.625606032384</v>
+        <v>1297.80580075834</v>
       </c>
       <c r="O30" t="n">
-        <v>4128.118795996293</v>
+        <v>1425.298990722249</v>
       </c>
       <c r="P30" t="n">
-        <v>4312.904395378278</v>
+        <v>1527.62351566646</v>
       </c>
       <c r="Q30" t="n">
-        <v>4922.044569114777</v>
+        <v>1596.024750770882</v>
       </c>
       <c r="R30" t="n">
-        <v>5072.487271760319</v>
+        <v>1746.467453416424</v>
       </c>
       <c r="S30" t="n">
-        <v>5019.187169984764</v>
+        <v>1693.16735164087</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.212246168542</v>
+        <v>1565.192427824647</v>
       </c>
       <c r="U30" t="n">
-        <v>4714.911668480586</v>
+        <v>1388.891850136692</v>
       </c>
       <c r="V30" t="n">
-        <v>4515.794150542585</v>
+        <v>1189.774332198691</v>
       </c>
       <c r="W30" t="n">
-        <v>4330.47139627578</v>
+        <v>1004.451577931885</v>
       </c>
       <c r="X30" t="n">
-        <v>4175.60396051466</v>
+        <v>849.5841421707649</v>
       </c>
       <c r="Y30" t="n">
-        <v>4049.118181293881</v>
+        <v>723.0983629499857</v>
       </c>
     </row>
     <row r="31">
@@ -6606,13 +6606,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E31" t="n">
-        <v>653.9923442516172</v>
+        <v>653.9923442516173</v>
       </c>
       <c r="F31" t="n">
-        <v>477.2852902133734</v>
+        <v>477.2852902133735</v>
       </c>
       <c r="G31" t="n">
-        <v>312.1523782761449</v>
+        <v>312.152378276145</v>
       </c>
       <c r="H31" t="n">
         <v>176.3254680586201</v>
@@ -6621,25 +6621,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J31" t="n">
-        <v>133.2111274395682</v>
+        <v>219.790812604258</v>
       </c>
       <c r="K31" t="n">
-        <v>460.1632893548909</v>
+        <v>546.7429745195806</v>
       </c>
       <c r="L31" t="n">
-        <v>945.1631468589111</v>
+        <v>1031.742832023601</v>
       </c>
       <c r="M31" t="n">
-        <v>1475.067678807885</v>
+        <v>1458.368707710521</v>
       </c>
       <c r="N31" t="n">
-        <v>1986.072700723331</v>
+        <v>1969.373729625967</v>
       </c>
       <c r="O31" t="n">
-        <v>2469.240209869881</v>
+        <v>2452.541238772517</v>
       </c>
       <c r="P31" t="n">
-        <v>2871.080834865814</v>
+        <v>2854.381863768451</v>
       </c>
       <c r="Q31" t="n">
         <v>3060.192497658394</v>
@@ -6700,37 +6700,37 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J32" t="n">
-        <v>224.6535174026494</v>
+        <v>590.1734116500809</v>
       </c>
       <c r="K32" t="n">
-        <v>352.0489777515211</v>
+        <v>1551.91916395713</v>
       </c>
       <c r="L32" t="n">
-        <v>1097.60332720408</v>
+        <v>1709.964497597094</v>
       </c>
       <c r="M32" t="n">
-        <v>2353.043926964759</v>
+        <v>1885.82038334719</v>
       </c>
       <c r="N32" t="n">
-        <v>3608.484526725438</v>
+        <v>2064.521801180391</v>
       </c>
       <c r="O32" t="n">
-        <v>4757.406874780025</v>
+        <v>3213.444149234977</v>
       </c>
       <c r="P32" t="n">
-        <v>4901.424849426945</v>
+        <v>4185.771998715294</v>
       </c>
       <c r="Q32" t="n">
-        <v>5009.576350611062</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R32" t="n">
         <v>5072.487271760319</v>
       </c>
       <c r="S32" t="n">
-        <v>5012.120617129751</v>
+        <v>5012.12061712975</v>
       </c>
       <c r="T32" t="n">
-        <v>4796.526502322479</v>
+        <v>4796.526502322478</v>
       </c>
       <c r="U32" t="n">
         <v>4537.385946980575</v>
@@ -6779,25 +6779,25 @@
         <v>145.9627621762616</v>
       </c>
       <c r="J33" t="n">
-        <v>196.5891711023322</v>
+        <v>521.1474960685445</v>
       </c>
       <c r="K33" t="n">
-        <v>283.1177676127606</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L33" t="n">
-        <v>399.4661439130774</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M33" t="n">
-        <v>535.2392112571697</v>
+        <v>859.7975362233819</v>
       </c>
       <c r="N33" t="n">
-        <v>674.6057876884894</v>
+        <v>999.1641126547015</v>
       </c>
       <c r="O33" t="n">
-        <v>802.0989776523977</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P33" t="n">
-        <v>986.8845770343842</v>
+        <v>1228.981827562821</v>
       </c>
       <c r="Q33" t="n">
         <v>1596.024750770882</v>
@@ -6843,13 +6843,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E34" t="n">
-        <v>653.9923442516172</v>
+        <v>653.9923442516173</v>
       </c>
       <c r="F34" t="n">
-        <v>477.2852902133734</v>
+        <v>477.2852902133735</v>
       </c>
       <c r="G34" t="n">
-        <v>312.1523782761449</v>
+        <v>312.152378276145</v>
       </c>
       <c r="H34" t="n">
         <v>176.3254680586201</v>
@@ -6861,7 +6861,7 @@
         <v>219.790812604258</v>
       </c>
       <c r="K34" t="n">
-        <v>546.7429745195807</v>
+        <v>546.7429745195806</v>
       </c>
       <c r="L34" t="n">
         <v>1031.742832023601</v>
@@ -6925,7 +6925,7 @@
         <v>1208.358382235654</v>
       </c>
       <c r="F35" t="n">
-        <v>780.4909526448619</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G35" t="n">
         <v>380.1149630316187</v>
@@ -6940,49 +6940,49 @@
         <v>659.9082048555672</v>
       </c>
       <c r="K35" t="n">
-        <v>1457.038864274577</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L35" t="n">
-        <v>2690.1441641674</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M35" t="n">
-        <v>2866.000049917496</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N35" t="n">
-        <v>3044.701467750697</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O35" t="n">
-        <v>3213.444149234977</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P35" t="n">
-        <v>4185.771998715294</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q35" t="n">
-        <v>4840.422285858006</v>
+        <v>4840.422285858007</v>
       </c>
       <c r="R35" t="n">
-        <v>5072.487271760319</v>
+        <v>5072.48727176032</v>
       </c>
       <c r="S35" t="n">
-        <v>5012.120617129751</v>
+        <v>5012.12061712975</v>
       </c>
       <c r="T35" t="n">
-        <v>4796.526502322479</v>
+        <v>4796.526502322478</v>
       </c>
       <c r="U35" t="n">
-        <v>4537.385946980576</v>
+        <v>4537.385946980575</v>
       </c>
       <c r="V35" t="n">
-        <v>4174.768996914402</v>
+        <v>4174.768996914401</v>
       </c>
       <c r="W35" t="n">
-        <v>3769.913542325436</v>
+        <v>3769.913542325435</v>
       </c>
       <c r="X35" t="n">
         <v>3350.771078904746</v>
       </c>
       <c r="Y35" t="n">
-        <v>2942.4849552044</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>601.7944618702226</v>
+        <v>601.7944618702227</v>
       </c>
       <c r="C36" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D36" t="n">
-        <v>400.2477118534181</v>
+        <v>400.2477118534182</v>
       </c>
       <c r="E36" t="n">
-        <v>306.1272971803718</v>
+        <v>306.1272971803719</v>
       </c>
       <c r="F36" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G36" t="n">
-        <v>137.9051026062692</v>
+        <v>137.9051026062693</v>
       </c>
       <c r="H36" t="n">
         <v>101.4497454352064</v>
@@ -7016,25 +7016,25 @@
         <v>145.9627621762616</v>
       </c>
       <c r="J36" t="n">
-        <v>196.5891711023322</v>
+        <v>521.1474960685445</v>
       </c>
       <c r="K36" t="n">
-        <v>283.1177676127606</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L36" t="n">
-        <v>399.4661439130774</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M36" t="n">
-        <v>535.2392112571697</v>
+        <v>859.7975362233819</v>
       </c>
       <c r="N36" t="n">
-        <v>674.6057876884894</v>
+        <v>999.1641126547015</v>
       </c>
       <c r="O36" t="n">
-        <v>802.0989776523977</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P36" t="n">
-        <v>986.8845770343842</v>
+        <v>1228.981827562821</v>
       </c>
       <c r="Q36" t="n">
         <v>1596.024750770882</v>
@@ -7046,7 +7046,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T36" t="n">
-        <v>1565.192427824647</v>
+        <v>1565.192427824648</v>
       </c>
       <c r="U36" t="n">
         <v>1388.891850136692</v>
@@ -7058,10 +7058,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X36" t="n">
-        <v>849.5841421707649</v>
+        <v>849.5841421707651</v>
       </c>
       <c r="Y36" t="n">
-        <v>723.0983629499857</v>
+        <v>723.0983629499858</v>
       </c>
     </row>
     <row r="37">
@@ -7080,13 +7080,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E37" t="n">
-        <v>653.9923442516172</v>
+        <v>653.9923442516173</v>
       </c>
       <c r="F37" t="n">
-        <v>477.2852902133734</v>
+        <v>477.2852902133735</v>
       </c>
       <c r="G37" t="n">
-        <v>312.1523782761449</v>
+        <v>312.152378276145</v>
       </c>
       <c r="H37" t="n">
         <v>176.3254680586201</v>
@@ -7101,19 +7101,19 @@
         <v>546.7429745195807</v>
       </c>
       <c r="L37" t="n">
-        <v>1031.742832023601</v>
+        <v>928.4641757615474</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.647363972575</v>
+        <v>1458.368707710521</v>
       </c>
       <c r="N37" t="n">
-        <v>2072.652385888021</v>
+        <v>1969.373729625967</v>
       </c>
       <c r="O37" t="n">
-        <v>2555.819895034571</v>
+        <v>2452.541238772517</v>
       </c>
       <c r="P37" t="n">
-        <v>2957.660520030505</v>
+        <v>2854.381863768451</v>
       </c>
       <c r="Q37" t="n">
         <v>3060.192497658394</v>
@@ -7162,10 +7162,10 @@
         <v>1208.358382235655</v>
       </c>
       <c r="F38" t="n">
-        <v>780.4909526448628</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G38" t="n">
-        <v>380.1149630316195</v>
+        <v>380.1149630316187</v>
       </c>
       <c r="H38" t="n">
         <v>101.4497454352064</v>
@@ -7177,28 +7177,28 @@
         <v>659.9082048555672</v>
       </c>
       <c r="K38" t="n">
-        <v>787.3036652044389</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L38" t="n">
-        <v>945.3489988444029</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M38" t="n">
-        <v>1121.204884594499</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N38" t="n">
-        <v>2376.645484355178</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O38" t="n">
-        <v>3525.567832409764</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P38" t="n">
-        <v>4185.771998715294</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q38" t="n">
-        <v>4840.422285858006</v>
+        <v>4840.422285858007</v>
       </c>
       <c r="R38" t="n">
-        <v>5072.487271760319</v>
+        <v>5072.48727176032</v>
       </c>
       <c r="S38" t="n">
         <v>5012.120617129751</v>
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>601.7944618702226</v>
+        <v>601.7944618702227</v>
       </c>
       <c r="C39" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D39" t="n">
-        <v>400.2477118534181</v>
+        <v>400.2477118534182</v>
       </c>
       <c r="E39" t="n">
-        <v>306.1272971803718</v>
+        <v>306.1272971803719</v>
       </c>
       <c r="F39" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G39" t="n">
-        <v>137.9051026062692</v>
+        <v>137.9051026062693</v>
       </c>
       <c r="H39" t="n">
         <v>101.4497454352064</v>
       </c>
       <c r="I39" t="n">
-        <v>145.9627621762616</v>
+        <v>119.899089015804</v>
       </c>
       <c r="J39" t="n">
-        <v>196.5891711023322</v>
+        <v>396.2230236344474</v>
       </c>
       <c r="K39" t="n">
-        <v>963.8512876831379</v>
+        <v>482.7516201448758</v>
       </c>
       <c r="L39" t="n">
-        <v>1080.199663983455</v>
+        <v>599.0999964451925</v>
       </c>
       <c r="M39" t="n">
-        <v>1215.972731327547</v>
+        <v>734.8730637892847</v>
       </c>
       <c r="N39" t="n">
-        <v>1355.339307758867</v>
+        <v>874.2396402206043</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.832497722775</v>
+        <v>1001.732830184513</v>
       </c>
       <c r="P39" t="n">
-        <v>1585.157022666986</v>
+        <v>1104.057355128724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1653.558257771409</v>
+        <v>1713.197528865222</v>
       </c>
       <c r="R39" t="n">
         <v>1746.467453416424</v>
@@ -7283,7 +7283,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T39" t="n">
-        <v>1565.192427824647</v>
+        <v>1565.192427824648</v>
       </c>
       <c r="U39" t="n">
         <v>1388.891850136692</v>
@@ -7295,10 +7295,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X39" t="n">
-        <v>849.5841421707649</v>
+        <v>849.5841421707651</v>
       </c>
       <c r="Y39" t="n">
-        <v>723.0983629499857</v>
+        <v>723.0983629499858</v>
       </c>
     </row>
     <row r="40">
@@ -7317,13 +7317,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E40" t="n">
-        <v>653.9923442516172</v>
+        <v>653.9923442516173</v>
       </c>
       <c r="F40" t="n">
-        <v>477.2852902133734</v>
+        <v>477.2852902133735</v>
       </c>
       <c r="G40" t="n">
-        <v>312.1523782761449</v>
+        <v>312.152378276145</v>
       </c>
       <c r="H40" t="n">
         <v>176.3254680586201</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1360.541645175691</v>
+        <v>1165.083710252521</v>
       </c>
       <c r="C41" t="n">
-        <v>922.3991723591139</v>
+        <v>726.941237435944</v>
       </c>
       <c r="D41" t="n">
-        <v>486.4893875335584</v>
+        <v>726.941237435944</v>
       </c>
       <c r="E41" t="n">
-        <v>60.38250514741201</v>
+        <v>726.941237435944</v>
       </c>
       <c r="F41" t="n">
-        <v>60.38250514741201</v>
+        <v>299.0738078451517</v>
       </c>
       <c r="G41" t="n">
         <v>60.38250514741201</v>
@@ -7408,31 +7408,31 @@
         <v>60.38250514741201</v>
       </c>
       <c r="I41" t="n">
-        <v>98.58461283384875</v>
+        <v>98.58461283384872</v>
       </c>
       <c r="J41" t="n">
-        <v>183.586277114855</v>
+        <v>618.8409645677729</v>
       </c>
       <c r="K41" t="n">
-        <v>930.8197783140786</v>
+        <v>1307.046690971114</v>
       </c>
       <c r="L41" t="n">
-        <v>1602.254055607784</v>
+        <v>1465.092024611077</v>
       </c>
       <c r="M41" t="n">
-        <v>1778.109941357881</v>
+        <v>1640.947910361173</v>
       </c>
       <c r="N41" t="n">
-        <v>1956.811359191082</v>
+        <v>1819.649328194374</v>
       </c>
       <c r="O41" t="n">
-        <v>2704.044860390305</v>
+        <v>1988.392009678654</v>
       </c>
       <c r="P41" t="n">
-        <v>2848.062835037225</v>
+        <v>2132.409984325574</v>
       </c>
       <c r="Q41" t="n">
-        <v>2956.214336221343</v>
+        <v>2787.060271468286</v>
       </c>
       <c r="R41" t="n">
         <v>3019.125257370601</v>
@@ -7444,19 +7444,19 @@
         <v>3019.125257370601</v>
       </c>
       <c r="U41" t="n">
-        <v>3019.125257370601</v>
+        <v>2759.984702028697</v>
       </c>
       <c r="V41" t="n">
-        <v>3019.125257370601</v>
+        <v>2397.367751962523</v>
       </c>
       <c r="W41" t="n">
-        <v>2614.269802781634</v>
+        <v>1992.512297373557</v>
       </c>
       <c r="X41" t="n">
-        <v>2195.127339360945</v>
+        <v>1573.369833952867</v>
       </c>
       <c r="Y41" t="n">
-        <v>1786.841215660598</v>
+        <v>1165.083710252521</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>181.6762185087391</v>
       </c>
       <c r="G42" t="n">
-        <v>96.83786231847485</v>
+        <v>96.83786231847486</v>
       </c>
       <c r="H42" t="n">
         <v>60.38250514741201</v>
@@ -7493,22 +7493,22 @@
         <v>480.0802557807501</v>
       </c>
       <c r="K42" t="n">
-        <v>566.6088522911786</v>
+        <v>865.2505403948178</v>
       </c>
       <c r="L42" t="n">
-        <v>682.9572285914952</v>
+        <v>981.5989166951343</v>
       </c>
       <c r="M42" t="n">
-        <v>818.7302959355877</v>
+        <v>1117.371984039227</v>
       </c>
       <c r="N42" t="n">
-        <v>958.0968723669074</v>
+        <v>1256.738560470546</v>
       </c>
       <c r="O42" t="n">
-        <v>1085.590062330816</v>
+        <v>1384.231750434454</v>
       </c>
       <c r="P42" t="n">
-        <v>1187.914587275027</v>
+        <v>1486.556275378666</v>
       </c>
       <c r="Q42" t="n">
         <v>1554.957510483088</v>
@@ -7575,7 +7575,7 @@
         <v>505.6757342317863</v>
       </c>
       <c r="L43" t="n">
-        <v>990.6755917358066</v>
+        <v>990.6755917358065</v>
       </c>
       <c r="M43" t="n">
         <v>1520.58012368478</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.397099764657</v>
+        <v>1636.599682001877</v>
       </c>
       <c r="C44" t="n">
-        <v>1327.25462694808</v>
+        <v>1636.599682001877</v>
       </c>
       <c r="D44" t="n">
-        <v>891.3448421225248</v>
+        <v>1200.689897176321</v>
       </c>
       <c r="E44" t="n">
-        <v>457.57009728082</v>
+        <v>766.9151523346166</v>
       </c>
       <c r="F44" t="n">
-        <v>60.38250514741201</v>
+        <v>339.0477227438244</v>
       </c>
       <c r="G44" t="n">
-        <v>60.38250514741201</v>
+        <v>339.0477227438244</v>
       </c>
       <c r="H44" t="n">
         <v>60.38250514741201</v>
       </c>
       <c r="I44" t="n">
-        <v>98.58461283384875</v>
+        <v>98.58461283384872</v>
       </c>
       <c r="J44" t="n">
-        <v>183.586277114855</v>
+        <v>618.8409645677729</v>
       </c>
       <c r="K44" t="n">
-        <v>717.8585234118531</v>
+        <v>746.2364249166444</v>
       </c>
       <c r="L44" t="n">
         <v>1465.092024611077</v>
@@ -7684,16 +7684,16 @@
         <v>3019.125257370601</v>
       </c>
       <c r="V44" t="n">
-        <v>3019.125257370601</v>
+        <v>2656.508307304427</v>
       </c>
       <c r="W44" t="n">
-        <v>3019.125257370601</v>
+        <v>2656.508307304427</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.982793949911</v>
+        <v>2471.185376187132</v>
       </c>
       <c r="Y44" t="n">
-        <v>2191.696670249565</v>
+        <v>2062.899252486785</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>181.6762185087391</v>
       </c>
       <c r="G45" t="n">
-        <v>96.83786231847485</v>
+        <v>96.83786231847486</v>
       </c>
       <c r="H45" t="n">
         <v>60.38250514741201</v>
@@ -7727,25 +7727,25 @@
         <v>104.8955218884672</v>
       </c>
       <c r="J45" t="n">
-        <v>480.0802557807501</v>
+        <v>155.5219308145378</v>
       </c>
       <c r="K45" t="n">
-        <v>566.6088522911786</v>
+        <v>242.0505273249661</v>
       </c>
       <c r="L45" t="n">
-        <v>682.9572285914952</v>
+        <v>358.3989036252827</v>
       </c>
       <c r="M45" t="n">
-        <v>818.7302959355877</v>
+        <v>494.1719709693751</v>
       </c>
       <c r="N45" t="n">
-        <v>958.0968723669074</v>
+        <v>633.5385474006947</v>
       </c>
       <c r="O45" t="n">
-        <v>1085.590062330816</v>
+        <v>761.0317373646029</v>
       </c>
       <c r="P45" t="n">
-        <v>1187.914587275027</v>
+        <v>945.8173367465899</v>
       </c>
       <c r="Q45" t="n">
         <v>1554.957510483088</v>
@@ -7791,13 +7791,13 @@
         <v>782.6831077130855</v>
       </c>
       <c r="E46" t="n">
-        <v>612.9251039638229</v>
+        <v>612.9251039638225</v>
       </c>
       <c r="F46" t="n">
-        <v>436.2180499255791</v>
+        <v>436.2180499255786</v>
       </c>
       <c r="G46" t="n">
-        <v>271.0851379883502</v>
+        <v>271.0851379883505</v>
       </c>
       <c r="H46" t="n">
         <v>135.2582277708257</v>
@@ -7806,25 +7806,25 @@
         <v>60.38250514741201</v>
       </c>
       <c r="J46" t="n">
-        <v>92.14388715177377</v>
+        <v>178.7235723164636</v>
       </c>
       <c r="K46" t="n">
-        <v>419.0960490670964</v>
+        <v>505.6757342317863</v>
       </c>
       <c r="L46" t="n">
-        <v>887.3969354737538</v>
+        <v>990.6755917358065</v>
       </c>
       <c r="M46" t="n">
-        <v>1417.301467422728</v>
+        <v>1520.58012368478</v>
       </c>
       <c r="N46" t="n">
-        <v>1928.306489338174</v>
+        <v>2031.585145600227</v>
       </c>
       <c r="O46" t="n">
-        <v>2411.473998484724</v>
+        <v>2514.752654746777</v>
       </c>
       <c r="P46" t="n">
-        <v>2813.314623480657</v>
+        <v>2916.59327974271</v>
       </c>
       <c r="Q46" t="n">
         <v>3019.125257370601</v>
@@ -7833,13 +7833,13 @@
         <v>3018.317104991647</v>
       </c>
       <c r="S46" t="n">
-        <v>2867.063753942565</v>
+        <v>2867.063753942564</v>
       </c>
       <c r="T46" t="n">
         <v>2623.14276776978</v>
       </c>
       <c r="U46" t="n">
-        <v>2344.734768643083</v>
+        <v>2344.734768643082</v>
       </c>
       <c r="V46" t="n">
         <v>2057.779260513513</v>
@@ -7987,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752736</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M3" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -8294,31 +8294,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,17 +8373,17 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="L10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L10" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>544.2191602495358</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>574.2748316828511</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>566.4750162166356</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>301.6582708117559</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>301.6582708117567</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>566.4750162166354</v>
+        <v>566.4750162166356</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>617.6368018738702</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>11.85816082294855</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>301.6582708117567</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>260.6661449230036</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>359.8032433523833</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9169,22 +9169,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>230.641096625279</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>919.6412862270913</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>301.658270811756</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>301.6582708117567</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.56981676997839</v>
+        <v>153.0240442090594</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>919.6412862270904</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>311.7665331861735</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>301.6582708117564</v>
       </c>
       <c r="R21" t="n">
-        <v>60.24168797354855</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>671.929748800419</v>
+        <v>919.6412862270904</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>227.9772986793666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>83.29401458361122</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.0240442090594</v>
+        <v>65.56981676997839</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1090.4896101117</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1087.615335280281</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>420.9910547659942</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.174523945678629</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>83.29401458361099</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>301.6582708117567</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.56981676997839</v>
+        <v>153.0240442090594</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>593.4434503157526</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1087.615335280281</v>
+        <v>126.0709292452023</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>301.6582708117562</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>83.29401458361099</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>359.8032433523833</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.0240442090594</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>369.2120143913451</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>593.4434503157526</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>83.29401458361099</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>301.6582708117564</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10588,10 +10588,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>676.5002010809471</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>919.6412862270913</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>83.29401458361099</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>301.6582708117567</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10749,7 +10749,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>318.1123489958662</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.56981676997839</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>919.6412862270913</v>
       </c>
       <c r="P38" t="n">
-        <v>521.4001935945548</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>227.9772986793666</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>60.24168797354832</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>626.0990311619717</v>
+        <v>566.4750162166354</v>
       </c>
       <c r="L41" t="n">
-        <v>518.5746905593351</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>584.3341613282259</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>301.6582708117568</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>301.6582708117558</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>410.986652472855</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>595.1395631911714</v>
+        <v>566.4750162166356</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>83.29401458361178</v>
       </c>
       <c r="Q45" t="n">
-        <v>301.6582708117558</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>405.5665764349477</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>65.5698167699793</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>27.51355881164136</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>275.8785654204481</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>321.5439529377326</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.1740502879435</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.3722297171108</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>275.8785654204481</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.76298808426327</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4381736591986</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5491497884846</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.742941732599036</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>7.591183831002866</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.3722297171108</v>
+        <v>160.0678400463485</v>
       </c>
       <c r="H41" t="n">
-        <v>275.8785654204481</v>
+        <v>275.8785654204482</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T41" t="n">
         <v>213.4381736591986</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5491497884846</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>30.37303908281046</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>396.3722297171108</v>
       </c>
       <c r="H44" t="n">
-        <v>275.8785654204481</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>59.76298808426327</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T44" t="n">
         <v>213.4381736591986</v>
@@ -25924,13 +25924,13 @@
         <v>256.5491497884846</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>231.4813369803599</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>405574.1427656846</v>
+        <v>405574.1427656845</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>596912.815326284</v>
+        <v>596912.8153262842</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>596912.8153262842</v>
+        <v>596912.815326284</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>596912.815326284</v>
+        <v>596912.8153262842</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>596912.815326284</v>
+        <v>596912.8153262842</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>596912.815326284</v>
+        <v>596912.8153262842</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>596912.815326284</v>
+        <v>596912.8153262842</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>596912.815326284</v>
+        <v>596912.8153262842</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="C2" t="n">
         <v>469128.9049041076</v>
       </c>
       <c r="D2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="E2" t="n">
-        <v>330374.1371980704</v>
+        <v>330374.1371980703</v>
       </c>
       <c r="F2" t="n">
         <v>330374.1371980704</v>
       </c>
       <c r="G2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="H2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="I2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="J2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="K2" t="n">
         <v>469128.9049041075</v>
@@ -26346,16 +26346,16 @@
         <v>469128.9049041075</v>
       </c>
       <c r="M2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041076</v>
       </c>
       <c r="N2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="O2" t="n">
         <v>330374.1371980704</v>
       </c>
       <c r="P2" t="n">
-        <v>330374.1371980703</v>
+        <v>330374.1371980704</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>415194.7254882889</v>
+        <v>415194.7254882887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>140698.9319285015</v>
+        <v>140698.9319285016</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.8226573672</v>
+        <v>10809.82265736732</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>177798.6586399898</v>
+        <v>177798.6586399897</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>300452.3867499857</v>
       </c>
       <c r="E4" t="n">
-        <v>75770.11844632433</v>
+        <v>75770.11844632436</v>
       </c>
       <c r="F4" t="n">
         <v>75770.11844632434</v>
       </c>
       <c r="G4" t="n">
-        <v>128596.7182463693</v>
+        <v>128596.7182463694</v>
       </c>
       <c r="H4" t="n">
         <v>128596.7182463694</v>
@@ -26441,25 +26441,25 @@
         <v>128596.7182463693</v>
       </c>
       <c r="J4" t="n">
-        <v>128596.7182463693</v>
+        <v>128596.7182463694</v>
       </c>
       <c r="K4" t="n">
-        <v>128596.7182463693</v>
+        <v>128596.7182463694</v>
       </c>
       <c r="L4" t="n">
-        <v>128596.7182463693</v>
+        <v>128596.7182463694</v>
       </c>
       <c r="M4" t="n">
-        <v>128596.7182463693</v>
+        <v>128596.7182463694</v>
       </c>
       <c r="N4" t="n">
         <v>128596.7182463694</v>
       </c>
       <c r="O4" t="n">
-        <v>75770.1184463243</v>
+        <v>75770.11844632434</v>
       </c>
       <c r="P4" t="n">
-        <v>75770.11844632433</v>
+        <v>75770.11844632434</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>51376.48441078434</v>
+        <v>51376.48441078433</v>
       </c>
       <c r="F5" t="n">
-        <v>51376.48441078435</v>
+        <v>51376.48441078433</v>
       </c>
       <c r="G5" t="n">
         <v>82587.58702950807</v>
       </c>
       <c r="H5" t="n">
+        <v>82587.58702950805</v>
+      </c>
+      <c r="I5" t="n">
+        <v>82587.58702950805</v>
+      </c>
+      <c r="J5" t="n">
         <v>82587.58702950807</v>
-      </c>
-      <c r="I5" t="n">
-        <v>82587.58702950807</v>
-      </c>
-      <c r="J5" t="n">
-        <v>82587.58702950805</v>
       </c>
       <c r="K5" t="n">
         <v>82587.58702950805</v>
@@ -26502,16 +26502,16 @@
         <v>82587.58702950805</v>
       </c>
       <c r="M5" t="n">
-        <v>82587.58702950805</v>
+        <v>82587.58702950807</v>
       </c>
       <c r="N5" t="n">
-        <v>82587.58702950805</v>
+        <v>82587.58702950807</v>
       </c>
       <c r="O5" t="n">
-        <v>51376.48441078434</v>
+        <v>51376.48441078433</v>
       </c>
       <c r="P5" t="n">
-        <v>51376.48441078434</v>
+        <v>51376.48441078433</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118691.3582025357</v>
+        <v>118691.3582025356</v>
       </c>
       <c r="C6" t="n">
         <v>132536.9659688321</v>
@@ -26530,22 +26530,22 @@
         <v>132536.9659688321</v>
       </c>
       <c r="E6" t="n">
-        <v>-211967.1911473272</v>
+        <v>-212363.6333407729</v>
       </c>
       <c r="F6" t="n">
-        <v>203227.5343409617</v>
+        <v>202831.0921475159</v>
       </c>
       <c r="G6" t="n">
-        <v>117245.6676997287</v>
+        <v>117245.6676997283</v>
       </c>
       <c r="H6" t="n">
-        <v>257944.5996282302</v>
+        <v>257944.59962823</v>
       </c>
       <c r="I6" t="n">
-        <v>257944.5996282301</v>
+        <v>257944.59962823</v>
       </c>
       <c r="J6" t="n">
-        <v>247134.776970863</v>
+        <v>247134.7769708626</v>
       </c>
       <c r="K6" t="n">
         <v>257944.5996282301</v>
@@ -26554,16 +26554,16 @@
         <v>257944.5996282301</v>
       </c>
       <c r="M6" t="n">
-        <v>80145.9409882403</v>
+        <v>80145.94098824037</v>
       </c>
       <c r="N6" t="n">
-        <v>257944.5996282302</v>
+        <v>257944.59962823</v>
       </c>
       <c r="O6" t="n">
-        <v>203227.5343409617</v>
+        <v>202831.0921475159</v>
       </c>
       <c r="P6" t="n">
-        <v>203227.5343409617</v>
+        <v>202831.0921475159</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="F3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="G3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="H3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="I3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="J3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="K3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="L3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="M3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="N3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="O3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="P3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>754.7813143426501</v>
       </c>
       <c r="F4" t="n">
-        <v>754.7813143426504</v>
+        <v>754.7813143426501</v>
       </c>
       <c r="G4" t="n">
         <v>1268.12181794008</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.6413072821656</v>
+        <v>251.6413072821654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>513.3405035974297</v>
+        <v>513.3405035974299</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752717</v>
+        <v>41.31500304752763</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>713.466311295123</v>
+        <v>713.4663112951226</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>513.3405035974297</v>
+        <v>513.3405035974299</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C3" t="n">
         <v>105.3918965517241</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
@@ -27526,7 +27526,7 @@
         <v>112.0037583559815</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>149.0326012679123</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27551,7 +27551,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H4" t="n">
         <v>97.18814951900188</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>239.2584160551636</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27700,16 +27700,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>57.7491312806502</v>
       </c>
       <c r="E6" t="n">
         <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -27760,10 +27760,10 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27794,7 +27794,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
-        <v>232.9158856853093</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -27946,7 +27946,7 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.53123883647795</v>
+        <v>48.14098415221586</v>
       </c>
       <c r="H9" t="n">
         <v>41.31829566194965</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
         <v>87.56185418517705</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -28067,10 +28067,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>239.2584160551636</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>268.8993414456936</v>
       </c>
       <c r="W10" t="n">
         <v>227.991137322044</v>
@@ -31755,46 +31755,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H11" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I11" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J11" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K11" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L11" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M11" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N11" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O11" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P11" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R11" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S11" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T11" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H12" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I12" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J12" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K12" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M12" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N12" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O12" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P12" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R12" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S12" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T12" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H13" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I13" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J13" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K13" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L13" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M13" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N13" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O13" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P13" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R13" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S13" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T13" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H14" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I14" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J14" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K14" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L14" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M14" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N14" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O14" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P14" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R14" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S14" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T14" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H15" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I15" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J15" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K15" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M15" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N15" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O15" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P15" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R15" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S15" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T15" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H16" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I16" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J16" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K16" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L16" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M16" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N16" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O16" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P16" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R16" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S16" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T16" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H17" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I17" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J17" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K17" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L17" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M17" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N17" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O17" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P17" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R17" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S17" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T17" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H18" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I18" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J18" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K18" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L18" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M18" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N18" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O18" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P18" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R18" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S18" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T18" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H19" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I19" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J19" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K19" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L19" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M19" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N19" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O19" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P19" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R19" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S19" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T19" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H20" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I20" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J20" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K20" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L20" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M20" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N20" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O20" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P20" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R20" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S20" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T20" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H21" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I21" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J21" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K21" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L21" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M21" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N21" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O21" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P21" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R21" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S21" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T21" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H22" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I22" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J22" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K22" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L22" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M22" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N22" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O22" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P22" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R22" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S22" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T22" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H23" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I23" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J23" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K23" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L23" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M23" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N23" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O23" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P23" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R23" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S23" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T23" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H24" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I24" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J24" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K24" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L24" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M24" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N24" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O24" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P24" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R24" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S24" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T24" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H25" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I25" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J25" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K25" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L25" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M25" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N25" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O25" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P25" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R25" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S25" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T25" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H26" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I26" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J26" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L26" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M26" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N26" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O26" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P26" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R26" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S26" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T26" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H27" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I27" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J27" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K27" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L27" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M27" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N27" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O27" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P27" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R27" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S27" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T27" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H28" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I28" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J28" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K28" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L28" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M28" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N28" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O28" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P28" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R28" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S28" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T28" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H29" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I29" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J29" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L29" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M29" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N29" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O29" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P29" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q29" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R29" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S29" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T29" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H30" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I30" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J30" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K30" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L30" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M30" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N30" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O30" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P30" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R30" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S30" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T30" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H31" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I31" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J31" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K31" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L31" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M31" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N31" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O31" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P31" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R31" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S31" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T31" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H32" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I32" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J32" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K32" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L32" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M32" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N32" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O32" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P32" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R32" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S32" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T32" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H33" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I33" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J33" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K33" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L33" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M33" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N33" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O33" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P33" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q33" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R33" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S33" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T33" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H34" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I34" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J34" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K34" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L34" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M34" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N34" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O34" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P34" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R34" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S34" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T34" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H35" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I35" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J35" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K35" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L35" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M35" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N35" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O35" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P35" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R35" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S35" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T35" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H36" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I36" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J36" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K36" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L36" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M36" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N36" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O36" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P36" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q36" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R36" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S36" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T36" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H37" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I37" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J37" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K37" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L37" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M37" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N37" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O37" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P37" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R37" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S37" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T37" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H38" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I38" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J38" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K38" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L38" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M38" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N38" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O38" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P38" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q38" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R38" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S38" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T38" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H39" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I39" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J39" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K39" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L39" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M39" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N39" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O39" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P39" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q39" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R39" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S39" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T39" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H40" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I40" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J40" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K40" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L40" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M40" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N40" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O40" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P40" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R40" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S40" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T40" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H41" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I41" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J41" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K41" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L41" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M41" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N41" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O41" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P41" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R41" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S41" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T41" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H42" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I42" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J42" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K42" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L42" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M42" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N42" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O42" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P42" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R42" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S42" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T42" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H43" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I43" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J43" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K43" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L43" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M43" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N43" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O43" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P43" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R43" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S43" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T43" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.011623345857951</v>
       </c>
       <c r="H44" t="n">
-        <v>10.36028759076775</v>
+        <v>10.36028759076774</v>
       </c>
       <c r="I44" t="n">
-        <v>39.00060904118871</v>
+        <v>39.00060904118867</v>
       </c>
       <c r="J44" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K44" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L44" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M44" t="n">
-        <v>177.6322078283801</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N44" t="n">
-        <v>180.506482659799</v>
+        <v>180.5064826597989</v>
       </c>
       <c r="O44" t="n">
-        <v>170.447153014424</v>
+        <v>170.4471530144239</v>
       </c>
       <c r="P44" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q44" t="n">
-        <v>109.2439405900179</v>
+        <v>109.2439405900178</v>
       </c>
       <c r="R44" t="n">
-        <v>63.5463849992496</v>
+        <v>63.54638499924955</v>
       </c>
       <c r="S44" t="n">
-        <v>23.05236699373809</v>
+        <v>23.05236699373807</v>
       </c>
       <c r="T44" t="n">
-        <v>4.428381196493184</v>
+        <v>4.428381196493181</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08092986766863609</v>
+        <v>0.08092986766863602</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5412662081163562</v>
+        <v>0.5412662081163558</v>
       </c>
       <c r="H45" t="n">
-        <v>5.227492062597441</v>
+        <v>5.227492062597437</v>
       </c>
       <c r="I45" t="n">
-        <v>18.63570058646227</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J45" t="n">
-        <v>51.13778679401066</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K45" t="n">
-        <v>87.40262273780652</v>
+        <v>87.40262273780645</v>
       </c>
       <c r="L45" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M45" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N45" t="n">
-        <v>140.7743196275956</v>
+        <v>140.7743196275955</v>
       </c>
       <c r="O45" t="n">
-        <v>128.7809999635437</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P45" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042539</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.09215667113348</v>
+        <v>69.09215667113342</v>
       </c>
       <c r="R45" t="n">
-        <v>33.60598439515413</v>
+        <v>33.6059843951541</v>
       </c>
       <c r="S45" t="n">
-        <v>10.05378241830161</v>
+        <v>10.0537824183016</v>
       </c>
       <c r="T45" t="n">
-        <v>2.181682654644435</v>
+        <v>2.181682654644433</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03560961895502345</v>
+        <v>0.03560961895502342</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4537794065743969</v>
+        <v>0.4537794065743966</v>
       </c>
       <c r="H46" t="n">
-        <v>4.034511451179641</v>
+        <v>4.034511451179638</v>
       </c>
       <c r="I46" t="n">
-        <v>13.64638433589187</v>
+        <v>13.64638433589186</v>
       </c>
       <c r="J46" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K46" t="n">
-        <v>52.72091650927992</v>
+        <v>52.72091650927988</v>
       </c>
       <c r="L46" t="n">
-        <v>67.46462195561536</v>
+        <v>67.4646219556153</v>
       </c>
       <c r="M46" t="n">
-        <v>71.13198461420296</v>
+        <v>71.13198461420291</v>
       </c>
       <c r="N46" t="n">
-        <v>69.44062500788026</v>
+        <v>69.4406250078802</v>
       </c>
       <c r="O46" t="n">
-        <v>64.13965648562478</v>
+        <v>64.13965648562473</v>
       </c>
       <c r="P46" t="n">
-        <v>54.88255659150704</v>
+        <v>54.882556591507</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.99783739960701</v>
+        <v>37.99783739960697</v>
       </c>
       <c r="R46" t="n">
-        <v>20.40357222651788</v>
+        <v>20.40357222651786</v>
       </c>
       <c r="S46" t="n">
-        <v>7.908137476391987</v>
+        <v>7.908137476391981</v>
       </c>
       <c r="T46" t="n">
-        <v>1.938875646272423</v>
+        <v>1.938875646272421</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02475160399496713</v>
+        <v>0.02475160399496712</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752736</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M3" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,17 +35093,17 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
@@ -35111,10 +35111,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="L10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L10" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J11" t="n">
         <v>525.5114663979032</v>
       </c>
       <c r="K11" t="n">
-        <v>672.9014434302143</v>
+        <v>128.6822831806783</v>
       </c>
       <c r="L11" t="n">
-        <v>159.6417511514787</v>
+        <v>159.6417511514786</v>
       </c>
       <c r="M11" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N11" t="n">
-        <v>754.7813143426501</v>
+        <v>180.5064826597988</v>
       </c>
       <c r="O11" t="n">
-        <v>170.4471530144242</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P11" t="n">
-        <v>145.4727016635557</v>
+        <v>711.9477178801912</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R11" t="n">
         <v>234.4090766690042</v>
@@ -35494,22 +35494,22 @@
         <v>87.4026227378065</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245622</v>
       </c>
       <c r="M12" t="n">
-        <v>438.8027832805361</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N12" t="n">
         <v>140.7743196275956</v>
       </c>
       <c r="O12" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P12" t="n">
-        <v>103.3581060042541</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.09215667113358</v>
+        <v>370.75042748289</v>
       </c>
       <c r="R12" t="n">
         <v>151.9623259045882</v>
@@ -35573,10 +35573,10 @@
         <v>330.2547090053765</v>
       </c>
       <c r="L13" t="n">
-        <v>489.8988459636569</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M13" t="n">
-        <v>535.2571029787615</v>
+        <v>535.2571029787616</v>
       </c>
       <c r="N13" t="n">
         <v>516.1666888034811</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J14" t="n">
         <v>525.5114663979032</v>
       </c>
       <c r="K14" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806783</v>
       </c>
       <c r="L14" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514786</v>
       </c>
       <c r="M14" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N14" t="n">
-        <v>180.5064826597991</v>
+        <v>180.5064826597988</v>
       </c>
       <c r="O14" t="n">
         <v>170.447153014424</v>
@@ -35725,28 +35725,28 @@
         <v>44.96264317278307</v>
       </c>
       <c r="J15" t="n">
-        <v>51.13778679401065</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K15" t="n">
-        <v>87.40262273780655</v>
+        <v>87.4026227378065</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245622</v>
       </c>
       <c r="M15" t="n">
-        <v>754.7813143426504</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N15" t="n">
-        <v>152.6324804505441</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O15" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P15" t="n">
-        <v>103.3581060042541</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.09215667113358</v>
+        <v>370.75042748289</v>
       </c>
       <c r="R15" t="n">
         <v>151.9623259045882</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.08220404480987</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K16" t="n">
-        <v>313.3870614322835</v>
+        <v>330.2547090053765</v>
       </c>
       <c r="L16" t="n">
-        <v>489.8988459636569</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M16" t="n">
-        <v>535.2571029787616</v>
+        <v>430.9352279665864</v>
       </c>
       <c r="N16" t="n">
         <v>516.1666888034808</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J17" t="n">
         <v>525.5114663979032</v>
@@ -35889,22 +35889,22 @@
         <v>971.460355865707</v>
       </c>
       <c r="L17" t="n">
-        <v>390.2828477767578</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M17" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N17" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O17" t="n">
-        <v>1160.527624297562</v>
+        <v>1090.088439241515</v>
       </c>
       <c r="P17" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R17" t="n">
         <v>234.4090766690033</v>
@@ -35965,25 +35965,25 @@
         <v>378.9744786790736</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0608935495625</v>
+        <v>87.4026227378065</v>
       </c>
       <c r="L18" t="n">
         <v>117.5236124245623</v>
       </c>
       <c r="M18" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N18" t="n">
         <v>140.7743196275956</v>
       </c>
       <c r="O18" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P18" t="n">
-        <v>103.3581060042541</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.09215667113358</v>
+        <v>370.75042748289</v>
       </c>
       <c r="R18" t="n">
         <v>151.9623259045882</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>119.5364314838905</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K19" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L19" t="n">
-        <v>489.898845963657</v>
+        <v>489.8988459636569</v>
       </c>
       <c r="M19" t="n">
         <v>535.2571029787616</v>
@@ -36056,13 +36056,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O19" t="n">
-        <v>488.0479890369193</v>
+        <v>488.047989036919</v>
       </c>
       <c r="P19" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.5676541695852</v>
+        <v>191.0218816086663</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J20" t="n">
         <v>525.5114663979032</v>
       </c>
       <c r="K20" t="n">
-        <v>128.6822831806785</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L20" t="n">
-        <v>1245.56090898265</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M20" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N20" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O20" t="n">
-        <v>170.4471530144242</v>
+        <v>1090.088439241514</v>
       </c>
       <c r="P20" t="n">
-        <v>982.1493429094103</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q20" t="n">
-        <v>421.0104737761912</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R20" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.96264317278306</v>
+        <v>44.96264317278307</v>
       </c>
       <c r="J21" t="n">
-        <v>51.13778679401065</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K21" t="n">
-        <v>775.0122389705109</v>
+        <v>87.4026227378065</v>
       </c>
       <c r="L21" t="n">
         <v>117.5236124245623</v>
       </c>
       <c r="M21" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N21" t="n">
         <v>140.7743196275956</v>
       </c>
       <c r="O21" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P21" t="n">
-        <v>103.3581060042541</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.09215667113358</v>
+        <v>370.7504274828898</v>
       </c>
       <c r="R21" t="n">
-        <v>93.84767236870266</v>
+        <v>151.9623259045882</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480984</v>
       </c>
       <c r="K22" t="n">
         <v>330.2547090053765</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J23" t="n">
         <v>525.5114663979032</v>
       </c>
       <c r="K23" t="n">
-        <v>128.6822831806785</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L23" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M23" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N23" t="n">
         <v>180.5064826597991</v>
       </c>
       <c r="O23" t="n">
-        <v>842.3769018148432</v>
+        <v>1090.088439241514</v>
       </c>
       <c r="P23" t="n">
         <v>982.1493429094107</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>44.96264317278306</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J24" t="n">
-        <v>51.13778679401065</v>
+        <v>279.1150854733772</v>
       </c>
       <c r="K24" t="n">
-        <v>87.4026227378065</v>
+        <v>87.40262273780644</v>
       </c>
       <c r="L24" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M24" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N24" t="n">
-        <v>140.7743196275957</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O24" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P24" t="n">
-        <v>186.6521205878653</v>
+        <v>103.358106004254</v>
       </c>
       <c r="Q24" t="n">
-        <v>615.2931047843412</v>
+        <v>615.293104784341</v>
       </c>
       <c r="R24" t="n">
-        <v>151.9623259045882</v>
+        <v>33.60598439515411</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>32.08220404480986</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K25" t="n">
-        <v>330.2547090053765</v>
+        <v>330.2547090053764</v>
       </c>
       <c r="L25" t="n">
         <v>489.8988459636569</v>
@@ -36527,16 +36527,16 @@
         <v>535.2571029787616</v>
       </c>
       <c r="N25" t="n">
-        <v>516.1666888034808</v>
+        <v>516.1666888034811</v>
       </c>
       <c r="O25" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P25" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q25" t="n">
-        <v>191.0218816086663</v>
+        <v>103.5676541695852</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J26" t="n">
-        <v>85.86026695051137</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K26" t="n">
-        <v>971.4603558657068</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L26" t="n">
-        <v>1245.56090898265</v>
+        <v>159.6417511514786</v>
       </c>
       <c r="M26" t="n">
-        <v>177.6322078283802</v>
+        <v>1268.12181794008</v>
       </c>
       <c r="N26" t="n">
-        <v>180.5064826597991</v>
+        <v>1268.12181794008</v>
       </c>
       <c r="O26" t="n">
-        <v>1160.527624297562</v>
+        <v>170.4471530144237</v>
       </c>
       <c r="P26" t="n">
-        <v>982.1493429094112</v>
+        <v>566.4637564295499</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.4184645356963</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R26" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.96264317278307</v>
+        <v>44.96264317278306</v>
       </c>
       <c r="J27" t="n">
-        <v>51.13778679401065</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K27" t="n">
         <v>87.4026227378065</v>
       </c>
       <c r="L27" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M27" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N27" t="n">
-        <v>140.7743196275957</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O27" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P27" t="n">
-        <v>186.6521205878651</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q27" t="n">
-        <v>615.2931047843412</v>
+        <v>370.75042748289</v>
       </c>
       <c r="R27" t="n">
         <v>151.9623259045882</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>119.5364314838906</v>
+        <v>32.08220404480983</v>
       </c>
       <c r="K28" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L28" t="n">
-        <v>489.898845963657</v>
+        <v>489.8988459636569</v>
       </c>
       <c r="M28" t="n">
         <v>535.2571029787616</v>
@@ -36767,13 +36767,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O28" t="n">
-        <v>488.0479890369193</v>
+        <v>488.047989036919</v>
       </c>
       <c r="P28" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.5676541695852</v>
+        <v>191.0218816086663</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J29" t="n">
-        <v>85.86026695051137</v>
+        <v>85.86026695051132</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6822831806785</v>
+        <v>128.6822831806784</v>
       </c>
       <c r="L29" t="n">
-        <v>753.0852014672314</v>
+        <v>1245.56090898265</v>
       </c>
       <c r="M29" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N29" t="n">
-        <v>1268.12181794008</v>
+        <v>306.5774119050011</v>
       </c>
       <c r="O29" t="n">
-        <v>1160.527624297562</v>
+        <v>1160.527624297561</v>
       </c>
       <c r="P29" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q29" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R29" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>44.96264317278292</v>
+        <v>44.96264317278307</v>
       </c>
       <c r="J30" t="n">
-        <v>51.13778679401048</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K30" t="n">
-        <v>87.40262273780672</v>
+        <v>389.0608935495627</v>
       </c>
       <c r="L30" t="n">
-        <v>117.5236124245625</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M30" t="n">
         <v>137.1445124687802</v>
@@ -36928,13 +36928,13 @@
         <v>128.7809999635438</v>
       </c>
       <c r="P30" t="n">
-        <v>186.6521205878653</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q30" t="n">
-        <v>615.2931047843413</v>
+        <v>69.09215667113335</v>
       </c>
       <c r="R30" t="n">
-        <v>151.9623259045884</v>
+        <v>151.9623259045882</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>32.08220404480987</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K31" t="n">
-        <v>330.2547090053765</v>
+        <v>330.2547090053764</v>
       </c>
       <c r="L31" t="n">
         <v>489.8988459636569</v>
       </c>
       <c r="M31" t="n">
-        <v>535.2571029787616</v>
+        <v>430.9352279665864</v>
       </c>
       <c r="N31" t="n">
         <v>516.1666888034808</v>
       </c>
       <c r="O31" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P31" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q31" t="n">
-        <v>191.0218816086663</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J32" t="n">
-        <v>85.86026695051137</v>
+        <v>455.0722813418564</v>
       </c>
       <c r="K32" t="n">
-        <v>128.6822831806785</v>
+        <v>971.4603558657067</v>
       </c>
       <c r="L32" t="n">
-        <v>753.0852014672314</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M32" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N32" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597988</v>
       </c>
       <c r="O32" t="n">
-        <v>1160.527624297562</v>
+        <v>1160.527624297561</v>
       </c>
       <c r="P32" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R32" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>44.96264317278307</v>
       </c>
       <c r="J33" t="n">
-        <v>51.13778679401065</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K33" t="n">
         <v>87.4026227378065</v>
       </c>
       <c r="L33" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M33" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N33" t="n">
-        <v>140.7743196275957</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O33" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P33" t="n">
-        <v>186.6521205878651</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q33" t="n">
-        <v>615.2931047843412</v>
+        <v>370.7504274828898</v>
       </c>
       <c r="R33" t="n">
         <v>151.9623259045882</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>119.5364314838906</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K34" t="n">
-        <v>330.2547090053765</v>
+        <v>330.2547090053764</v>
       </c>
       <c r="L34" t="n">
-        <v>489.898845963657</v>
+        <v>489.8988459636569</v>
       </c>
       <c r="M34" t="n">
         <v>535.2571029787616</v>
       </c>
       <c r="N34" t="n">
-        <v>516.1666888034808</v>
+        <v>516.1666888034811</v>
       </c>
       <c r="O34" t="n">
         <v>488.0479890369193</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J35" t="n">
         <v>525.5114663979032</v>
       </c>
       <c r="K35" t="n">
-        <v>805.1824842616256</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L35" t="n">
-        <v>1245.56090898265</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M35" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N35" t="n">
         <v>180.5064826597991</v>
       </c>
       <c r="O35" t="n">
-        <v>170.4471530144242</v>
+        <v>1090.088439241515</v>
       </c>
       <c r="P35" t="n">
         <v>982.1493429094107</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>44.96264317278307</v>
+        <v>44.96264317278306</v>
       </c>
       <c r="J36" t="n">
-        <v>51.13778679401065</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K36" t="n">
         <v>87.4026227378065</v>
       </c>
       <c r="L36" t="n">
-        <v>117.5236124245624</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M36" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N36" t="n">
-        <v>140.7743196275957</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O36" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P36" t="n">
-        <v>186.6521205878651</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q36" t="n">
-        <v>615.2931047843412</v>
+        <v>370.75042748289</v>
       </c>
       <c r="R36" t="n">
         <v>151.9623259045882</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>119.5364314838906</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K37" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L37" t="n">
-        <v>489.898845963657</v>
+        <v>385.5769709514815</v>
       </c>
       <c r="M37" t="n">
         <v>535.2571029787616</v>
@@ -37484,7 +37484,7 @@
         <v>405.8996212080137</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.5676541695852</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J38" t="n">
         <v>525.5114663979032</v>
       </c>
       <c r="K38" t="n">
-        <v>128.6822831806785</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L38" t="n">
-        <v>159.6417511514788</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M38" t="n">
-        <v>177.63220782838</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N38" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O38" t="n">
-        <v>1160.527624297562</v>
+        <v>1090.088439241515</v>
       </c>
       <c r="P38" t="n">
-        <v>666.8728952581105</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q38" t="n">
         <v>661.26291630577</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.96264317278307</v>
+        <v>18.63570058646225</v>
       </c>
       <c r="J39" t="n">
-        <v>51.13778679401065</v>
+        <v>279.1150854733772</v>
       </c>
       <c r="K39" t="n">
-        <v>775.0122389705109</v>
+        <v>87.40262273780644</v>
       </c>
       <c r="L39" t="n">
         <v>117.5236124245623</v>
       </c>
       <c r="M39" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N39" t="n">
         <v>140.7743196275956</v>
       </c>
       <c r="O39" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P39" t="n">
-        <v>103.3581060042541</v>
+        <v>103.358106004254</v>
       </c>
       <c r="Q39" t="n">
-        <v>69.09215667113358</v>
+        <v>615.2931047843413</v>
       </c>
       <c r="R39" t="n">
-        <v>93.84767236870243</v>
+        <v>33.60598439515411</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>119.5364314838906</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K40" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L40" t="n">
-        <v>489.898845963657</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M40" t="n">
         <v>535.2571029787616</v>
       </c>
       <c r="N40" t="n">
-        <v>516.1666888034808</v>
+        <v>516.1666888034811</v>
       </c>
       <c r="O40" t="n">
         <v>488.0479890369193</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J41" t="n">
-        <v>85.86026695051136</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K41" t="n">
-        <v>754.7813143426501</v>
+        <v>695.1572993973137</v>
       </c>
       <c r="L41" t="n">
-        <v>678.2164417108138</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M41" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N41" t="n">
-        <v>180.5064826597991</v>
+        <v>180.5064826597988</v>
       </c>
       <c r="O41" t="n">
-        <v>754.7813143426501</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P41" t="n">
         <v>145.4727016635557</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.2439405900182</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R41" t="n">
-        <v>63.54638499924977</v>
+        <v>234.4090766690042</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>378.9744786790736</v>
       </c>
       <c r="K42" t="n">
-        <v>87.4026227378065</v>
+        <v>389.0608935495633</v>
       </c>
       <c r="L42" t="n">
-        <v>117.5236124245623</v>
+        <v>117.5236124245622</v>
       </c>
       <c r="M42" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N42" t="n">
-        <v>140.7743196275957</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O42" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635435</v>
       </c>
       <c r="P42" t="n">
-        <v>103.3581060042541</v>
+        <v>103.3581060042538</v>
       </c>
       <c r="Q42" t="n">
-        <v>370.7504274828893</v>
+        <v>69.09215667113335</v>
       </c>
       <c r="R42" t="n">
         <v>151.9623259045882</v>
@@ -37940,13 +37940,13 @@
         <v>119.5364314838905</v>
       </c>
       <c r="K43" t="n">
-        <v>330.2547090053764</v>
+        <v>330.2547090053765</v>
       </c>
       <c r="L43" t="n">
-        <v>489.8988459636569</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M43" t="n">
-        <v>535.2571029787615</v>
+        <v>535.2571029787616</v>
       </c>
       <c r="N43" t="n">
         <v>516.1666888034811</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>38.58798756205731</v>
+        <v>38.58798756205728</v>
       </c>
       <c r="J44" t="n">
-        <v>85.86026695051136</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K44" t="n">
-        <v>539.6689356535335</v>
+        <v>128.6822831806783</v>
       </c>
       <c r="L44" t="n">
-        <v>754.7813143426501</v>
+        <v>726.1167673681142</v>
       </c>
       <c r="M44" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N44" t="n">
-        <v>180.5064826597991</v>
+        <v>180.5064826597988</v>
       </c>
       <c r="O44" t="n">
         <v>170.447153014424</v>
       </c>
       <c r="P44" t="n">
-        <v>145.4727016635559</v>
+        <v>145.4727016635557</v>
       </c>
       <c r="Q44" t="n">
         <v>661.26291630577</v>
@@ -38095,28 +38095,28 @@
         <v>44.96264317278307</v>
       </c>
       <c r="J45" t="n">
-        <v>378.9744786790736</v>
+        <v>51.13778679401062</v>
       </c>
       <c r="K45" t="n">
-        <v>87.4026227378065</v>
+        <v>87.40262273780644</v>
       </c>
       <c r="L45" t="n">
         <v>117.5236124245623</v>
       </c>
       <c r="M45" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N45" t="n">
-        <v>140.7743196275957</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O45" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P45" t="n">
-        <v>103.3581060042541</v>
+        <v>186.6521205878657</v>
       </c>
       <c r="Q45" t="n">
-        <v>370.7504274828893</v>
+        <v>615.2931047843412</v>
       </c>
       <c r="R45" t="n">
         <v>151.9623259045882</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.08220404480986</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K46" t="n">
-        <v>330.2547090053764</v>
+        <v>330.2547090053765</v>
       </c>
       <c r="L46" t="n">
-        <v>473.0311983905631</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M46" t="n">
         <v>535.2571029787616</v>
       </c>
       <c r="N46" t="n">
-        <v>516.1666888034808</v>
+        <v>516.1666888034811</v>
       </c>
       <c r="O46" t="n">
         <v>488.0479890369193</v>
@@ -38195,7 +38195,7 @@
         <v>405.8996212080137</v>
       </c>
       <c r="Q46" t="n">
-        <v>207.8895291817607</v>
+        <v>103.5676541695861</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
